--- a/Base/Quelques images et infos/MiniListe.xlsx
+++ b/Base/Quelques images et infos/MiniListe.xlsx
@@ -111,9 +111,6 @@
     <t>Tbl_Edition</t>
   </si>
   <si>
-    <t>Tbl_collectio</t>
-  </si>
-  <si>
     <t>Tbl_Pseudo</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>FNSP0210-1</t>
+  </si>
+  <si>
+    <t>Tbl_collection</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
   <dimension ref="B2:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1025,6 +1025,7 @@
     <col min="11" max="11" width="23.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1063,7 +1064,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:15">
@@ -1101,7 +1102,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>29</v>
@@ -1144,13 +1145,13 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="2">
         <v>1768</v>
@@ -1162,33 +1163,33 @@
         <v>251</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
         <v>22</v>
@@ -1200,30 +1201,30 @@
         <v>192</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>51</v>
@@ -1235,30 +1236,30 @@
         <v>249</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>1590</v>
@@ -1270,30 +1271,30 @@
         <v>379</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>1999</v>
@@ -1305,27 +1306,27 @@
         <v>288</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>27059</v>
@@ -1337,30 +1338,30 @@
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2">
         <v>3112</v>
@@ -1372,30 +1373,30 @@
         <v>439</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="2">
         <v>9016</v>
@@ -1407,30 +1408,30 @@
         <v>388</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="2">
         <v>2280</v>
@@ -1442,30 +1443,30 @@
         <v>221</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2">
         <v>2279</v>
@@ -1477,27 +1478,27 @@
         <v>221</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2">
         <v>2350</v>
@@ -1509,30 +1510,30 @@
         <v>284</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E16" s="2">
         <v>150</v>
@@ -1544,27 +1545,27 @@
         <v>154</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E17" s="2">
         <v>210</v>
@@ -1576,27 +1577,27 @@
         <v>156</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2">
         <v>5073</v>
@@ -1608,30 +1609,30 @@
         <v>315</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E19" s="2">
         <v>169</v>
@@ -1640,30 +1641,30 @@
         <v>1934</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F20" s="2">
         <v>1966</v>
@@ -1672,38 +1673,38 @@
         <v>185</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="I21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E22" s="2">
         <v>7</v>
@@ -1715,27 +1716,27 @@
         <v>186</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="2">
         <v>14218</v>
@@ -1747,30 +1748,30 @@
         <v>189</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E24" s="2">
         <v>853</v>
@@ -1782,27 +1783,27 @@
         <v>189</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2">
         <v>3567</v>
@@ -1814,30 +1815,30 @@
         <v>274</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="L25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2">
         <v>203</v>
@@ -1849,27 +1850,27 @@
         <v>406</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="L26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E27" s="2">
         <v>92</v>
@@ -1881,30 +1882,30 @@
         <v>188</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2">
         <v>6427</v>
@@ -1916,30 +1917,30 @@
         <v>307</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E29" s="2">
         <v>105</v>
@@ -1951,27 +1952,27 @@
         <v>192</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="2">
         <v>167</v>
@@ -1983,27 +1984,27 @@
         <v>192</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="2">
         <v>21</v>
@@ -2015,27 +2016,27 @@
         <v>191</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2">
         <v>113</v>
@@ -2047,30 +2048,30 @@
         <v>342</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" s="2">
         <v>197</v>
@@ -2082,24 +2083,24 @@
         <v>356</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>25</v>
@@ -2117,27 +2118,27 @@
         <v>185</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2">
         <v>5948</v>
@@ -2149,30 +2150,30 @@
         <v>480</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E36" s="2">
         <v>141</v>
@@ -2184,24 +2185,24 @@
         <v>223</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" s="2">
         <v>210</v>
@@ -2213,16 +2214,16 @@
         <v>224</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
